--- a/trait_table_parents.xlsx
+++ b/trait_table_parents.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\detemplj\OneDrive - Iowa State University\Documents\Research (Whipple Lab)\G3 Paper Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\detemplj\OneDrive - Iowa State University\Documents\Research (Whipple Lab)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5471D96F-77F0-4576-A27A-95990F75C27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3A9D09-8CC8-45E4-B774-ECC00936CCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final_se" sheetId="2" r:id="rId1"/>
+    <sheet name="trait_table_4-19-23_growth_room" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +35,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>yor_mean</t>
+  </si>
+  <si>
+    <t>cap_mean</t>
+  </si>
+  <si>
+    <t>p_values</t>
+  </si>
   <si>
     <t>Anther length</t>
   </si>
@@ -152,24 +166,15 @@
     <t>P-value</t>
   </si>
   <si>
+    <t>yor_sd</t>
+  </si>
+  <si>
+    <t>cap_sd</t>
+  </si>
+  <si>
     <t>10.53 ± 0.38</t>
   </si>
   <si>
-    <t>3.35 ± 0.27</t>
-  </si>
-  <si>
-    <t>2.41 ± 0.19</t>
-  </si>
-  <si>
-    <t>2.57 ± 0.21</t>
-  </si>
-  <si>
-    <t>6.84 ± 0.23</t>
-  </si>
-  <si>
-    <t>2.99 ± 0.18</t>
-  </si>
-  <si>
     <t>6.68 ± 0.21</t>
   </si>
   <si>
@@ -182,30 +187,12 @@
     <t>0.46 ± 0.03</t>
   </si>
   <si>
-    <t>1.34 ± 0.05</t>
-  </si>
-  <si>
-    <t>7.27 ± 0.23</t>
-  </si>
-  <si>
-    <t>1.19 ± 0.18</t>
-  </si>
-  <si>
-    <t>0.67 ± 0.04</t>
-  </si>
-  <si>
     <t>9.61 ± 0.79</t>
   </si>
   <si>
     <t>2.81 ± 0.51</t>
   </si>
   <si>
-    <t>2.43 ± 0.51</t>
-  </si>
-  <si>
-    <t>6.44 ± 0.33</t>
-  </si>
-  <si>
     <t>2.44 ± 0.62</t>
   </si>
   <si>
@@ -215,43 +202,88 @@
     <t>0.56 ± 0.05</t>
   </si>
   <si>
-    <t>2.68 ± 0.97</t>
-  </si>
-  <si>
-    <t>1.23 ± 0.17</t>
-  </si>
-  <si>
-    <t>1.37 ± 0.13</t>
-  </si>
-  <si>
-    <t>0.35 ± 0.39</t>
-  </si>
-  <si>
-    <t>7.02 ± 0.23</t>
-  </si>
-  <si>
-    <t>0.63 ± 0.21</t>
-  </si>
-  <si>
-    <t>0.94 ± 0.06</t>
-  </si>
-  <si>
-    <t>1.50 ± 0.11</t>
-  </si>
-  <si>
-    <t>2.92 ± 0.30</t>
-  </si>
-  <si>
-    <t>0.40 ± 0.34</t>
-  </si>
-  <si>
-    <t>1.80 ± 0.32</t>
-  </si>
-  <si>
     <t>7.53 ± 1.30</t>
   </si>
   <si>
-    <t>3.46 ± 0.20</t>
+    <t>6.84 ± 0.27</t>
+  </si>
+  <si>
+    <t>2.99 ± 0.19</t>
+  </si>
+  <si>
+    <t>3.35 ± 0.21</t>
+  </si>
+  <si>
+    <t>2.41 ± 0.23</t>
+  </si>
+  <si>
+    <t>2.57 ± 0.18</t>
+  </si>
+  <si>
+    <t>7.27 ± 0.3</t>
+  </si>
+  <si>
+    <t>1.19 ± 0.11</t>
+  </si>
+  <si>
+    <t>0.67 ± 0.05</t>
+  </si>
+  <si>
+    <t>2.92 ± 0.34</t>
+  </si>
+  <si>
+    <t>1.5 ± 0.23</t>
+  </si>
+  <si>
+    <t>1.34 ± 0.18</t>
+  </si>
+  <si>
+    <t>0.4 ± 0.04</t>
+  </si>
+  <si>
+    <t>6.44 ± 0.51</t>
+  </si>
+  <si>
+    <t>3.46 ± 0.33</t>
+  </si>
+  <si>
+    <t>2.43 ± 0.32</t>
+  </si>
+  <si>
+    <t>7.02 ± 0.97</t>
+  </si>
+  <si>
+    <t>0.63 ± 0.17</t>
+  </si>
+  <si>
+    <t>0.94 ± 0.13</t>
+  </si>
+  <si>
+    <t>2.68 ± 0.39</t>
+  </si>
+  <si>
+    <t>1.23 ± 0.23</t>
+  </si>
+  <si>
+    <t>1.37 ± 0.21</t>
+  </si>
+  <si>
+    <t>0.35 ± 0.06</t>
+  </si>
+  <si>
+    <t>1.80 ± 0.20</t>
+  </si>
+  <si>
+    <t>0.000***</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -866,8 +898,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -944,6 +978,7 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="18" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -989,7 +1024,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
@@ -1028,28 +1063,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1157,10 +1170,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" headerRowCellStyle="60% - Accent6">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trait" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5C5675E6-561B-4AA8-B3B1-DDC2D1BF965F}" name="Abbreviation" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" headerRowCellStyle="60% - Accent6">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trait" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="G. yorkii" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="G. capitata" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="P-value" dataDxfId="0"/>
@@ -1170,9 +1182,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1210,7 +1222,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1316,7 +1328,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1458,7 +1470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1466,327 +1478,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9.0636103120440303E-7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>10.534413793103401</v>
+      </c>
+      <c r="H2">
+        <v>0.38134644140778901</v>
+      </c>
+      <c r="I2">
+        <v>9.609</v>
+      </c>
+      <c r="J2">
+        <v>0.79177678846921296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.1081856412914304E-4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>6.8385862068965499</v>
+      </c>
+      <c r="H3">
+        <v>0.27344554397035098</v>
+      </c>
+      <c r="I3">
+        <v>6.4405000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.51113421882629995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8.7321831702842799E-31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>2.98803448275862</v>
+      </c>
+      <c r="H4">
+        <v>0.191603847776496</v>
+      </c>
+      <c r="I4">
+        <v>1.8028</v>
+      </c>
+      <c r="J4">
+        <v>0.19964302625194399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.3217940621635601E-6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>3.35</v>
+      </c>
+      <c r="H5">
+        <v>0.213583707243788</v>
+      </c>
+      <c r="I5">
+        <v>2.8107000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.50958862042726705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.4365248042794199E-19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>2.4128965517241401</v>
+      </c>
+      <c r="H6">
+        <v>0.23293382641360799</v>
+      </c>
+      <c r="I6">
+        <v>3.4628999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.33354277500587598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3.9692157026954798E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>2.56820689655172</v>
+      </c>
+      <c r="H7">
+        <v>0.17953896897139199</v>
+      </c>
+      <c r="I7">
+        <v>2.4272999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.31559513020149199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1.4449995814530101E-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>6.6825517241379302</v>
+      </c>
+      <c r="H8">
+        <v>0.21289645139075999</v>
+      </c>
+      <c r="I8">
+        <v>7.5260999999999996</v>
+      </c>
+      <c r="J8">
+        <v>1.3017131510383599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.7663091231876299E-14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>0.93424137931034501</v>
+      </c>
+      <c r="H9">
+        <v>0.158365232289255</v>
+      </c>
+      <c r="I9">
+        <v>2.4374333333333298</v>
+      </c>
+      <c r="J9">
+        <v>0.62430329075744495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.21112842831845899</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0.62220689655172401</v>
+      </c>
+      <c r="H10">
+        <v>4.4845273130704501E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.638133333333333</v>
+      </c>
+      <c r="J10">
+        <v>5.1729224270987903E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="20">
+        <v>7.1839598966331103E-12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0.458586206896552</v>
+      </c>
+      <c r="H11">
+        <v>2.9190895402235201E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.55916666666666703</v>
+      </c>
+      <c r="J11">
+        <v>5.25108089584541E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.185</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>7.2672068965517198</v>
+      </c>
+      <c r="H12">
+        <v>0.29941340022860202</v>
+      </c>
+      <c r="I12">
+        <v>7.0151666666666701</v>
+      </c>
+      <c r="J12">
+        <v>0.97299201128425905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="23">
+        <v>3.4458554768745498E-12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>1.1915517241379301</v>
+      </c>
+      <c r="H13">
+        <v>0.106845879059144</v>
+      </c>
+      <c r="I13">
+        <v>0.628066666666667</v>
+      </c>
+      <c r="J13">
+        <v>0.174000383141341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>0.66813917012499202</v>
+      </c>
+      <c r="H14">
+        <v>5.30231732368509E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.94469646632942605</v>
+      </c>
+      <c r="J14">
+        <v>0.127419986879413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B15" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1.4444911645395299E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>2.9175517241379301</v>
+      </c>
+      <c r="H15">
+        <v>0.34345768986741898</v>
+      </c>
+      <c r="I15">
+        <v>2.6775333333333302</v>
+      </c>
+      <c r="J15">
+        <v>0.386424256157823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="3">
-        <v>9.0636103120440303E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5.1081856412914304E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B16" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="29">
+        <v>2.7145132309469799E-5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>1.5012758620689699</v>
+      </c>
+      <c r="H16">
+        <v>0.22547440408292799</v>
+      </c>
+      <c r="I16">
+        <v>1.22813333333333</v>
+      </c>
+      <c r="J16">
+        <v>0.23414668749390399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.59943005927181203</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>1.3443103448275899</v>
+      </c>
+      <c r="H17">
+        <v>0.17557051970408499</v>
+      </c>
+      <c r="I17">
+        <v>1.37086666666667</v>
+      </c>
+      <c r="J17">
+        <v>0.20960993878340201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="3">
-        <v>8.7321831702842799E-31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4.3217940621635601E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2.4365248042794199E-19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="9">
-        <v>3.9692157026954798E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1.4449995814530101E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.7663091231876299E-14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.21112842831845899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="18">
-        <v>7.1839598966331103E-12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="B18" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="21">
-        <v>3.4458554768745498E-12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="24">
-        <v>1.4444911645395299E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="27">
-        <v>2.7145132309469799E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="24">
-        <v>0.59943005927181203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="30">
+      <c r="C18" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="32">
         <v>4.8294252916089201E-4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18">
+        <v>0.39817241379310297</v>
+      </c>
+      <c r="H18">
+        <v>4.2534917559843198E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.35016666666666701</v>
+      </c>
+      <c r="J18">
+        <v>5.60123652193983E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1797,4 +2024,1958 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>10.534413793103401</v>
+      </c>
+      <c r="D2">
+        <v>0.38134644140778901</v>
+      </c>
+      <c r="E2">
+        <v>9.609</v>
+      </c>
+      <c r="F2">
+        <v>0.79177678846921296</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9.0636103120440303E-7</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10.53</v>
+      </c>
+      <c r="L2">
+        <v>0.38</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE(K2, " ± ",L2)</f>
+        <v>10.53 ± 0.38</v>
+      </c>
+      <c r="N2">
+        <v>9.61</v>
+      </c>
+      <c r="O2">
+        <v>0.79</v>
+      </c>
+      <c r="P2" t="str">
+        <f>CONCATENATE(N2, " ± ",O2)</f>
+        <v>9.61 ± 0.79</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>9.0636103120440303E-7</v>
+      </c>
+      <c r="S2" s="35">
+        <v>9.0636103120440303E-7</v>
+      </c>
+      <c r="U2" s="35">
+        <f>ROUND(S2,3)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="35">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>6.8385862068965499</v>
+      </c>
+      <c r="D3">
+        <v>0.27344554397035098</v>
+      </c>
+      <c r="E3">
+        <v>6.4405000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.51113421882629995</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.3217940621635601E-6</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6.84</v>
+      </c>
+      <c r="L3">
+        <v>0.27</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M18" si="0">CONCATENATE(K3, " ± ",L3)</f>
+        <v>6.84 ± 0.27</v>
+      </c>
+      <c r="N3">
+        <v>6.44</v>
+      </c>
+      <c r="O3">
+        <v>0.51</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P18" si="1">CONCATENATE(N3, " ± ",O3)</f>
+        <v>6.44 ± 0.51</v>
+      </c>
+      <c r="Q3">
+        <v>5.1081856412914304E-4</v>
+      </c>
+      <c r="S3" s="35">
+        <v>5.1081856412914304E-4</v>
+      </c>
+      <c r="U3" s="35">
+        <f t="shared" ref="U3:U18" si="2">ROUND(S3,3)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="V3" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>2.98803448275862</v>
+      </c>
+      <c r="D4">
+        <v>0.191603847776496</v>
+      </c>
+      <c r="E4">
+        <v>1.8028</v>
+      </c>
+      <c r="F4">
+        <v>0.19964302625194399</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.4365248042794199E-19</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="L4">
+        <v>0.19</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>2.99 ± 0.19</v>
+      </c>
+      <c r="N4">
+        <v>1.8</v>
+      </c>
+      <c r="O4">
+        <v>0.2</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="1"/>
+        <v>1.8 ± 0.2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>8.7321831702842799E-31</v>
+      </c>
+      <c r="S4" s="35">
+        <v>8.7321831702842799E-31</v>
+      </c>
+      <c r="U4" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="35">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>3.35</v>
+      </c>
+      <c r="D5">
+        <v>0.213583707243788</v>
+      </c>
+      <c r="E5">
+        <v>2.8107000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.50958862042726705</v>
+      </c>
+      <c r="G5">
+        <v>3.9692157026954798E-2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="L5">
+        <v>0.21</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>3.35 ± 0.21</v>
+      </c>
+      <c r="N5">
+        <v>2.81</v>
+      </c>
+      <c r="O5">
+        <v>0.51</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>2.81 ± 0.51</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4.3217940621635601E-6</v>
+      </c>
+      <c r="S5" s="35">
+        <v>4.3217940621635601E-6</v>
+      </c>
+      <c r="U5" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="35">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>2.4128965517241401</v>
+      </c>
+      <c r="D6">
+        <v>0.23293382641360799</v>
+      </c>
+      <c r="E6">
+        <v>3.4628999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.33354277500587598</v>
+      </c>
+      <c r="G6">
+        <v>5.1081856412914304E-4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="L6">
+        <v>0.23</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>2.41 ± 0.23</v>
+      </c>
+      <c r="N6">
+        <v>3.46</v>
+      </c>
+      <c r="O6">
+        <v>0.33</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>3.46 ± 0.33</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.4365248042794199E-19</v>
+      </c>
+      <c r="S6" s="35">
+        <v>2.4365248042794199E-19</v>
+      </c>
+      <c r="U6" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="35">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>2.56820689655172</v>
+      </c>
+      <c r="D7">
+        <v>0.17953896897139199</v>
+      </c>
+      <c r="E7">
+        <v>2.4272999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.31559513020149199</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8.7321831702842799E-31</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="L7">
+        <v>0.18</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>2.57 ± 0.18</v>
+      </c>
+      <c r="N7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.32</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>2.43 ± 0.32</v>
+      </c>
+      <c r="Q7">
+        <v>3.9692157026954798E-2</v>
+      </c>
+      <c r="S7" s="35">
+        <v>3.9692157026954798E-2</v>
+      </c>
+      <c r="U7" s="35">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="V7" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>6.6825517241379302</v>
+      </c>
+      <c r="D8">
+        <v>0.21289645139075999</v>
+      </c>
+      <c r="E8">
+        <v>7.5260999999999996</v>
+      </c>
+      <c r="F8">
+        <v>1.3017131510383599</v>
+      </c>
+      <c r="G8">
+        <v>1.4449995814530101E-3</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2">
+        <v>6.68</v>
+      </c>
+      <c r="L8">
+        <v>0.21</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>6.68 ± 0.21</v>
+      </c>
+      <c r="N8">
+        <v>7.53</v>
+      </c>
+      <c r="O8">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>7.53 ± 1.3</v>
+      </c>
+      <c r="Q8">
+        <v>1.4449995814530101E-3</v>
+      </c>
+      <c r="S8" s="35">
+        <v>1.4449995814530101E-3</v>
+      </c>
+      <c r="U8" s="35">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="V8" s="35">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.93424137931034501</v>
+      </c>
+      <c r="D9">
+        <v>0.158365232289255</v>
+      </c>
+      <c r="E9">
+        <v>2.4374333333333298</v>
+      </c>
+      <c r="F9">
+        <v>0.62430329075744495</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.7663091231876299E-14</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="L9">
+        <v>0.16</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>0.93 ± 0.16</v>
+      </c>
+      <c r="N9">
+        <v>2.44</v>
+      </c>
+      <c r="O9">
+        <v>0.62</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="1"/>
+        <v>2.44 ± 0.62</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2.7663091231876299E-14</v>
+      </c>
+      <c r="S9" s="35">
+        <v>2.7663091231876299E-14</v>
+      </c>
+      <c r="U9" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0.62220689655172401</v>
+      </c>
+      <c r="D10">
+        <v>4.4845273130704501E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.638133333333333</v>
+      </c>
+      <c r="F10">
+        <v>5.1729224270987903E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.21112842831845899</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="L10">
+        <v>0.04</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>0.62 ± 0.04</v>
+      </c>
+      <c r="N10">
+        <v>0.64</v>
+      </c>
+      <c r="O10">
+        <v>0.05</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v>0.64 ± 0.05</v>
+      </c>
+      <c r="Q10">
+        <v>0.21112842831845899</v>
+      </c>
+      <c r="S10" s="35">
+        <v>0.21112842831845899</v>
+      </c>
+      <c r="U10" s="35">
+        <f t="shared" si="2"/>
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="V10" s="35">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0.458586206896552</v>
+      </c>
+      <c r="D11">
+        <v>2.9190895402235201E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.55916666666666703</v>
+      </c>
+      <c r="F11">
+        <v>5.25108089584541E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7.1839598966331103E-12</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="L11">
+        <v>0.03</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.46 ± 0.03</v>
+      </c>
+      <c r="N11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O11">
+        <v>0.05</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v>0.56 ± 0.05</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>7.1839598966331103E-12</v>
+      </c>
+      <c r="S11" s="35">
+        <v>7.1839598966331103E-12</v>
+      </c>
+      <c r="U11" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>7.2672068965517198</v>
+      </c>
+      <c r="D12">
+        <v>0.29941340022860202</v>
+      </c>
+      <c r="E12">
+        <v>7.0151666666666701</v>
+      </c>
+      <c r="F12">
+        <v>0.97299201128425905</v>
+      </c>
+      <c r="G12">
+        <v>1.4444911645395299E-2</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2">
+        <v>7.27</v>
+      </c>
+      <c r="L12">
+        <v>0.3</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>7.27 ± 0.3</v>
+      </c>
+      <c r="N12">
+        <v>7.02</v>
+      </c>
+      <c r="O12">
+        <v>0.97</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="1"/>
+        <v>7.02 ± 0.97</v>
+      </c>
+      <c r="Q12">
+        <v>0.18450137945252501</v>
+      </c>
+      <c r="S12" s="35">
+        <v>0.18450137945252501</v>
+      </c>
+      <c r="U12" s="35">
+        <f t="shared" si="2"/>
+        <v>0.185</v>
+      </c>
+      <c r="V12" s="35">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1.1915517241379301</v>
+      </c>
+      <c r="D13">
+        <v>0.106845879059144</v>
+      </c>
+      <c r="E13">
+        <v>0.628066666666667</v>
+      </c>
+      <c r="F13">
+        <v>0.174000383141341</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.7145132309469799E-5</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="L13">
+        <v>0.11</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>1.19 ± 0.11</v>
+      </c>
+      <c r="N13">
+        <v>0.63</v>
+      </c>
+      <c r="O13">
+        <v>0.17</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="1"/>
+        <v>0.63 ± 0.17</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>7.03908451103266E-20</v>
+      </c>
+      <c r="S13" s="35">
+        <v>7.03908451103266E-20</v>
+      </c>
+      <c r="U13" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>0.66813917012499202</v>
+      </c>
+      <c r="D14">
+        <v>5.30231732368509E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.94469646632942605</v>
+      </c>
+      <c r="F14">
+        <v>0.127419986879413</v>
+      </c>
+      <c r="G14">
+        <v>0.59943005927181203</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="L14">
+        <v>0.05</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>0.67 ± 0.05</v>
+      </c>
+      <c r="N14">
+        <v>0.94</v>
+      </c>
+      <c r="O14">
+        <v>0.13</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="1"/>
+        <v>0.94 ± 0.13</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1.8377957669459299E-13</v>
+      </c>
+      <c r="S14" s="35">
+        <v>1.8377957669459299E-13</v>
+      </c>
+      <c r="U14" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>2.9175517241379301</v>
+      </c>
+      <c r="D15">
+        <v>0.34345768986741898</v>
+      </c>
+      <c r="E15">
+        <v>2.6775333333333302</v>
+      </c>
+      <c r="F15">
+        <v>0.386424256157823</v>
+      </c>
+      <c r="G15">
+        <v>4.8294252916089201E-4</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="L15">
+        <v>0.34</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>2.92 ± 0.34</v>
+      </c>
+      <c r="N15">
+        <v>2.68</v>
+      </c>
+      <c r="O15">
+        <v>0.39</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="1"/>
+        <v>2.68 ± 0.39</v>
+      </c>
+      <c r="Q15">
+        <v>1.4444911645395299E-2</v>
+      </c>
+      <c r="S15" s="35">
+        <v>1.4444911645395299E-2</v>
+      </c>
+      <c r="U15" s="35">
+        <f t="shared" si="2"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="V15" s="35">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1.5012758620689699</v>
+      </c>
+      <c r="D16">
+        <v>0.22547440408292799</v>
+      </c>
+      <c r="E16">
+        <v>1.22813333333333</v>
+      </c>
+      <c r="F16">
+        <v>0.23414668749390399</v>
+      </c>
+      <c r="G16">
+        <v>0.18450137945252501</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="L16">
+        <v>0.23</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5 ± 0.23</v>
+      </c>
+      <c r="N16">
+        <v>1.23</v>
+      </c>
+      <c r="O16">
+        <v>0.23</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="1"/>
+        <v>1.23 ± 0.23</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.7145132309469799E-5</v>
+      </c>
+      <c r="S16" s="35">
+        <v>2.7145132309469799E-5</v>
+      </c>
+      <c r="U16" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1.3443103448275899</v>
+      </c>
+      <c r="D17">
+        <v>0.17557051970408499</v>
+      </c>
+      <c r="E17">
+        <v>1.37086666666667</v>
+      </c>
+      <c r="F17">
+        <v>0.20960993878340201</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7.03908451103266E-20</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="L17">
+        <v>0.18</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>1.34 ± 0.18</v>
+      </c>
+      <c r="N17">
+        <v>1.37</v>
+      </c>
+      <c r="O17">
+        <v>0.21</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="1"/>
+        <v>1.37 ± 0.21</v>
+      </c>
+      <c r="Q17">
+        <v>0.59943005927181203</v>
+      </c>
+      <c r="S17" s="35">
+        <v>0.59943005927181203</v>
+      </c>
+      <c r="U17" s="35">
+        <f t="shared" si="2"/>
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="V17" s="35">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>0.39817241379310297</v>
+      </c>
+      <c r="D18">
+        <v>4.2534917559843198E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.35016666666666701</v>
+      </c>
+      <c r="F18">
+        <v>5.60123652193983E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.8377957669459299E-13</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L18">
+        <v>0.04</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>0.4 ± 0.04</v>
+      </c>
+      <c r="N18">
+        <v>0.35</v>
+      </c>
+      <c r="O18">
+        <v>0.06</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="1"/>
+        <v>0.35 ± 0.06</v>
+      </c>
+      <c r="Q18">
+        <v>4.8294252916089201E-4</v>
+      </c>
+      <c r="S18" s="35">
+        <v>4.8294252916089201E-4</v>
+      </c>
+      <c r="U18" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K20" s="2">
+        <f>ROUND(K2,2)</f>
+        <v>10.53</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" ref="L20:O20" si="3">ROUND(L2,2)</f>
+        <v>0.38</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2">
+        <f t="shared" si="3"/>
+        <v>9.61</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.79</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>ROUND(C2,2)</f>
+        <v>10.53</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:F21" si="4">ROUND(D2,2)</f>
+        <v>0.38</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>9.61</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>0.79</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" ref="K21:O36" si="5">ROUND(K3,2)</f>
+        <v>6.84</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
+        <f t="shared" si="5"/>
+        <v>6.44</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="5"/>
+        <v>0.51</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="T21" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="U21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" ref="C22:F38" si="6">ROUND(C3,2)</f>
+        <v>6.84</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>0.27</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>6.44</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>0.51</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="5"/>
+        <v>2.99</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="T22" s="35">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="6"/>
+        <v>2.99</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>0.19</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>1.8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="5"/>
+        <v>3.35</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2">
+        <f t="shared" si="5"/>
+        <v>2.81</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="5"/>
+        <v>0.51</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="T23" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="6"/>
+        <v>3.35</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
+        <v>0.21</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>2.81</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>0.51</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="5"/>
+        <v>2.41</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <f t="shared" si="5"/>
+        <v>3.46</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="5"/>
+        <v>0.33</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="T24" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="6"/>
+        <v>2.41</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>0.23</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>3.46</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="6"/>
+        <v>0.33</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="5"/>
+        <v>2.57</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2">
+        <f t="shared" si="5"/>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="5"/>
+        <v>0.32</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="T25" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="6"/>
+        <v>2.57</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>0.32</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="5"/>
+        <v>6.68</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2">
+        <f t="shared" si="5"/>
+        <v>7.53</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="T26" s="35">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="6"/>
+        <v>6.68</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>0.21</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>7.53</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.93</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.16</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2">
+        <f t="shared" si="5"/>
+        <v>2.44</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.62</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="T27" s="35">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="6"/>
+        <v>0.93</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>0.16</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>2.44</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="6"/>
+        <v>0.62</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="5"/>
+        <v>0.62</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="T28" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="6"/>
+        <v>0.62</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.46</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="T29" s="35">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>0.46</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="5"/>
+        <v>7.27</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2">
+        <f t="shared" si="5"/>
+        <v>7.02</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="T30" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>7.27</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>7.02</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="5"/>
+        <v>1.19</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.63</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.17</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="T31" s="35">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>1.19</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="6"/>
+        <v>0.11</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>0.63</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>0.17</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.67</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.94</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.13</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="T32" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="6"/>
+        <v>0.67</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>0.94</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="6"/>
+        <v>0.13</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="5"/>
+        <v>2.92</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="5"/>
+        <v>0.34</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2">
+        <f t="shared" si="5"/>
+        <v>2.68</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="5"/>
+        <v>0.39</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="T33" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="6"/>
+        <v>2.92</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>0.34</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>2.68</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="6"/>
+        <v>0.39</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2">
+        <f t="shared" si="5"/>
+        <v>1.23</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="T34" s="35">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="6"/>
+        <v>0.23</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>1.23</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>0.23</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="5"/>
+        <v>1.34</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2">
+        <f t="shared" si="5"/>
+        <v>1.37</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="T35" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="6"/>
+        <v>1.34</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>1.37</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
+        <v>0.21</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.35</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.06</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="T36" s="35">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="T37" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="K40" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4E12F6-85D3-47E9-A3C1-739891C8698D}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>